--- a/biology/Botanique/Pilostyles/Pilostyles.xlsx
+++ b/biology/Botanique/Pilostyles/Pilostyles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pilostyles est un genre de plantes dicotylédones de la famille des Apodanthaceae, originaire de diverses régions tropicales, qui comprend une vingtaine d'espèces acceptées. Ce sont des espèces de plantes endoparasites, dépourvues de racines et de chlorophylle, qui vivent à l'intérieur de leur hôtes et restent invisibles jusqu'à la floraison, lorsque les fleurs de quelques millimètres de diamètre (par exemple les minuscules fleurs de 2 mm chez la pilostyles thurberi[3]) émergent à la surface des tissus de l'hôte. Ces parasites dioïques, sont spécialisés dans les espèces ligneuses de Fabaceae.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pilostyles est un genre de plantes dicotylédones de la famille des Apodanthaceae, originaire de diverses régions tropicales, qui comprend une vingtaine d'espèces acceptées. Ce sont des espèces de plantes endoparasites, dépourvues de racines et de chlorophylle, qui vivent à l'intérieur de leur hôtes et restent invisibles jusqu'à la floraison, lorsque les fleurs de quelques millimètres de diamètre (par exemple les minuscules fleurs de 2 mm chez la pilostyles thurberi) émergent à la surface des tissus de l'hôte. Ces parasites dioïques, sont spécialisés dans les espèces ligneuses de Fabaceae.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (26 janvier 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (26 janvier 2020) :
 Pilostyles berteroi Guill.
 Pilostyles blanchetii (Gardner) R. Br.
 Pilostyles calliandrae (Gardner) R. Br.
